--- a/Sales analysis.xlsx
+++ b/Sales analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLOYEE" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="DATA" sheetId="3" r:id="rId10"/>
     <sheet name="TASKS" sheetId="4" r:id="rId11"/>
     <sheet name="DASHBOARD" sheetId="6" r:id="rId12"/>
-    <sheet name="CHARTS" sheetId="5" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_CUSTOMER">#N/A</definedName>
@@ -36,17 +35,17 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId14"/>
         <x14:slicerCache r:id="rId15"/>
         <x14:slicerCache r:id="rId16"/>
         <x14:slicerCache r:id="rId17"/>
         <x14:slicerCache r:id="rId18"/>
         <x14:slicerCache r:id="rId19"/>
-        <x14:slicerCache r:id="rId20"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4248" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="237">
   <si>
     <t>employee number</t>
   </si>
@@ -758,81 +757,6 @@
   </si>
   <si>
     <t>CUSTOMER SALES BY NUMBER OF YEARS</t>
-  </si>
-  <si>
-    <t>GENDER</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>COURESE</t>
-  </si>
-  <si>
-    <t>ECONOMICS</t>
-  </si>
-  <si>
-    <t>FINANCE</t>
-  </si>
-  <si>
-    <t>STATISTICS</t>
-  </si>
-  <si>
-    <t>MATHEMATICS</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>ANTRHOPOLOGY</t>
-  </si>
-  <si>
-    <t>STUDENTS</t>
-  </si>
-  <si>
-    <t>TEACHERS</t>
-  </si>
-  <si>
-    <t>AT HOME</t>
-  </si>
-  <si>
-    <t>AT SCHOOL</t>
-  </si>
-  <si>
-    <t>IN CHURCH</t>
-  </si>
-  <si>
-    <t>SOUL SEARCHING</t>
-  </si>
-  <si>
-    <t>NON TEACHERS</t>
-  </si>
-  <si>
-    <t>CLEANER</t>
-  </si>
-  <si>
-    <t>COOK</t>
-  </si>
-  <si>
-    <t>GARDENER</t>
-  </si>
-  <si>
-    <t>WATCHMAN</t>
-  </si>
-  <si>
-    <t>JANUARY</t>
-  </si>
-  <si>
-    <t>FEBRUARY</t>
-  </si>
-  <si>
-    <t>MARCH</t>
-  </si>
-  <si>
-    <t>ACCIDENTS AT WORK</t>
   </si>
   <si>
     <t>Lowest sale</t>
@@ -1627,12 +1551,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="272099736"/>
-        <c:axId val="272100120"/>
-        <c:axId val="272100504"/>
+        <c:axId val="268922344"/>
+        <c:axId val="132003424"/>
+        <c:axId val="270573120"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="272099736"/>
+        <c:axId val="268922344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272100120"/>
+        <c:crossAx val="132003424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1676,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="272100120"/>
+        <c:axId val="132003424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,12 +1650,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272099736"/>
+        <c:crossAx val="268922344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="272100504"/>
+        <c:axId val="270573120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272100120"/>
+        <c:crossAx val="132003424"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:dTable>
@@ -2288,11 +2212,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="273280584"/>
-        <c:axId val="273285072"/>
+        <c:axId val="270405432"/>
+        <c:axId val="270405816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273280584"/>
+        <c:axId val="270405432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273285072"/>
+        <c:crossAx val="270405816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273285072"/>
+        <c:axId val="270405816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2371,7 +2295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273280584"/>
+        <c:crossAx val="270405432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4763,11 +4687,11 @@
         </c:dLbls>
         <c:gapWidth val="355"/>
         <c:overlap val="-70"/>
-        <c:axId val="274022808"/>
-        <c:axId val="274023192"/>
+        <c:axId val="271153848"/>
+        <c:axId val="271154232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="274022808"/>
+        <c:axId val="271153848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4810,7 +4734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274023192"/>
+        <c:crossAx val="271154232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4818,7 +4742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274023192"/>
+        <c:axId val="271154232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4880,7 +4804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274022808"/>
+        <c:crossAx val="271153848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5933,12 +5857,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="274046384"/>
-        <c:axId val="274045992"/>
-        <c:axId val="274117360"/>
+        <c:axId val="271275656"/>
+        <c:axId val="271274088"/>
+        <c:axId val="271188240"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="274046384"/>
+        <c:axId val="271275656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5974,7 +5898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274045992"/>
+        <c:crossAx val="271274088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5982,7 +5906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274045992"/>
+        <c:axId val="271274088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6032,12 +5956,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274046384"/>
+        <c:crossAx val="271275656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="274117360"/>
+        <c:axId val="271188240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6072,7 +5996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274045992"/>
+        <c:crossAx val="271274088"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -6650,12 +6574,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="274047168"/>
-        <c:axId val="274047952"/>
-        <c:axId val="274210928"/>
+        <c:axId val="271274872"/>
+        <c:axId val="271275264"/>
+        <c:axId val="271183928"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="274047168"/>
+        <c:axId val="271274872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6712,7 +6636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274047952"/>
+        <c:crossAx val="271275264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6720,7 +6644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274047952"/>
+        <c:axId val="271275264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6777,12 +6701,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274047168"/>
+        <c:crossAx val="271274872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="274210928"/>
+        <c:axId val="271183928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6838,7 +6762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274047952"/>
+        <c:crossAx val="271275264"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -20069,7 +19993,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -20078,7 +20002,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -21269,7 +21193,7 @@
   <dimension ref="A1:J578"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="A1:J578"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39790,7 +39714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -39869,7 +39793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -39884,230 +39808,6 @@
       </x14:slicerList>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" t="s">
-        <v>253</v>
-      </c>
-      <c r="E22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -40253,10 +39953,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -40293,7 +39993,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B8" s="25">
         <v>2085065</v>
@@ -40329,10 +40029,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -40345,7 +40045,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B5" s="25">
         <v>2085065</v>
@@ -40374,10 +40074,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -40406,7 +40106,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B7" s="25">
         <v>2085065</v>
@@ -40433,10 +40133,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -40449,7 +40149,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B5" s="25">
         <v>2085065</v>
@@ -40465,7 +40165,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40478,15 +40178,15 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B4">
         <v>2012</v>
@@ -40498,7 +40198,7 @@
         <v>2014</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -40571,7 +40271,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B9" s="25">
         <v>693252</v>
@@ -40609,15 +40309,15 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B4">
         <v>2012</v>
@@ -40629,7 +40329,7 @@
         <v>2014</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -40651,7 +40351,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B6" s="25">
         <v>693252</v>
@@ -40689,15 +40389,15 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B4">
         <v>2012</v>
@@ -40709,7 +40409,7 @@
         <v>2014</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -40731,7 +40431,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B6" s="25">
         <v>693252</v>

--- a/Sales analysis.xlsx
+++ b/Sales analysis.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLOYEE" sheetId="1" r:id="rId1"/>
-    <sheet name="REFF" sheetId="2" r:id="rId2"/>
-    <sheet name="SALES PER PRDUCT" sheetId="7" r:id="rId3"/>
-    <sheet name="SALES PER SALES PERSON" sheetId="8" r:id="rId4"/>
-    <sheet name="SALES PER YEAR" sheetId="9" r:id="rId5"/>
-    <sheet name="SALES PER REGION" sheetId="10" r:id="rId6"/>
-    <sheet name="SALES PER PRODUCT IN YEARS" sheetId="11" r:id="rId7"/>
-    <sheet name="SALES BY SALES PERSON IN YEAR" sheetId="12" r:id="rId8"/>
-    <sheet name="CUSTOMER SALES BY YEARS" sheetId="13" r:id="rId9"/>
-    <sheet name="DATA" sheetId="3" r:id="rId10"/>
+    <sheet name="DATA" sheetId="3" r:id="rId2"/>
+    <sheet name="REFF" sheetId="2" r:id="rId3"/>
+    <sheet name="SALES PER PRDUCT" sheetId="7" r:id="rId4"/>
+    <sheet name="SALES PER SALES PERSON" sheetId="8" r:id="rId5"/>
+    <sheet name="SALES PER YEAR" sheetId="9" r:id="rId6"/>
+    <sheet name="SALES PER REGION" sheetId="10" r:id="rId7"/>
+    <sheet name="SALES PER PRODUCT IN YEARS" sheetId="11" r:id="rId8"/>
+    <sheet name="SALES BY SALES PERSON IN YEAR" sheetId="12" r:id="rId9"/>
+    <sheet name="CUSTOMER SALES BY YEARS" sheetId="13" r:id="rId10"/>
     <sheet name="TASKS" sheetId="4" r:id="rId11"/>
     <sheet name="DASHBOARD" sheetId="6" r:id="rId12"/>
   </sheets>
@@ -1551,12 +1551,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="268922344"/>
-        <c:axId val="132003424"/>
-        <c:axId val="270573120"/>
+        <c:axId val="258371968"/>
+        <c:axId val="258372352"/>
+        <c:axId val="258372736"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="268922344"/>
+        <c:axId val="258371968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132003424"/>
+        <c:crossAx val="258372352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132003424"/>
+        <c:axId val="258372352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,12 +1650,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268922344"/>
+        <c:crossAx val="258371968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="270573120"/>
+        <c:axId val="258372736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132003424"/>
+        <c:crossAx val="258372352"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:dTable>
@@ -2212,11 +2212,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270405432"/>
-        <c:axId val="270405816"/>
+        <c:axId val="259419720"/>
+        <c:axId val="259332912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270405432"/>
+        <c:axId val="259419720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270405816"/>
+        <c:crossAx val="259332912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2261,7 +2261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270405816"/>
+        <c:axId val="259332912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270405432"/>
+        <c:crossAx val="259419720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4687,11 +4687,11 @@
         </c:dLbls>
         <c:gapWidth val="355"/>
         <c:overlap val="-70"/>
-        <c:axId val="271153848"/>
-        <c:axId val="271154232"/>
+        <c:axId val="270221792"/>
+        <c:axId val="270230376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271153848"/>
+        <c:axId val="270221792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4734,7 +4734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271154232"/>
+        <c:crossAx val="270230376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4742,7 +4742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271154232"/>
+        <c:axId val="270230376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,7 +4804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271153848"/>
+        <c:crossAx val="270221792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5857,12 +5857,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="271275656"/>
-        <c:axId val="271274088"/>
-        <c:axId val="271188240"/>
+        <c:axId val="259459808"/>
+        <c:axId val="259459024"/>
+        <c:axId val="259425344"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="271275656"/>
+        <c:axId val="259459808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5898,7 +5898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271274088"/>
+        <c:crossAx val="259459024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5906,7 +5906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271274088"/>
+        <c:axId val="259459024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5956,12 +5956,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271275656"/>
+        <c:crossAx val="259459808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="271188240"/>
+        <c:axId val="259425344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5996,7 +5996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271274088"/>
+        <c:crossAx val="259459024"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -6574,12 +6574,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="271274872"/>
-        <c:axId val="271275264"/>
-        <c:axId val="271183928"/>
+        <c:axId val="259457848"/>
+        <c:axId val="259458240"/>
+        <c:axId val="259582568"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="271274872"/>
+        <c:axId val="259457848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6636,7 +6636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271275264"/>
+        <c:crossAx val="259458240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6644,7 +6644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271275264"/>
+        <c:axId val="259458240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6701,12 +6701,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271274872"/>
+        <c:crossAx val="259457848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="271183928"/>
+        <c:axId val="259582568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6762,7 +6762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271275264"/>
+        <c:crossAx val="259458240"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -19944,7 +19944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G23" sqref="G23:H24"/>
     </sheetView>
   </sheetViews>
@@ -21189,6 +21189,187 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4">
+        <v>2013</v>
+      </c>
+      <c r="D4">
+        <v>2014</v>
+      </c>
+      <c r="E4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="25">
+        <v>693252</v>
+      </c>
+      <c r="C5" s="25">
+        <v>704070</v>
+      </c>
+      <c r="D5" s="25">
+        <v>687743</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2085065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="25">
+        <v>693252</v>
+      </c>
+      <c r="C6" s="25">
+        <v>704070</v>
+      </c>
+      <c r="D6" s="25">
+        <v>687743</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2085065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J578"/>
   <sheetViews>
@@ -39710,108 +39891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:H11"/>
   <sheetViews>
@@ -39898,7 +39978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B8"/>
   <sheetViews>
@@ -40004,7 +40084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B5"/>
   <sheetViews>
@@ -40056,7 +40136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B7"/>
   <sheetViews>
@@ -40117,7 +40197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B5"/>
   <sheetViews>
@@ -40160,7 +40240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E9"/>
   <sheetViews>
@@ -40291,7 +40371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E6"/>
   <sheetViews>
@@ -40369,84 +40449,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4">
-        <v>2012</v>
-      </c>
-      <c r="C4">
-        <v>2013</v>
-      </c>
-      <c r="D4">
-        <v>2014</v>
-      </c>
-      <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="25">
-        <v>693252</v>
-      </c>
-      <c r="C5" s="25">
-        <v>704070</v>
-      </c>
-      <c r="D5" s="25">
-        <v>687743</v>
-      </c>
-      <c r="E5" s="25">
-        <v>2085065</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="25">
-        <v>693252</v>
-      </c>
-      <c r="C6" s="25">
-        <v>704070</v>
-      </c>
-      <c r="D6" s="25">
-        <v>687743</v>
-      </c>
-      <c r="E6" s="25">
-        <v>2085065</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>